--- a/scrapers/TA/scrapes/1. Run/Hotel_Region/tripadvisor_data_Teplice_2019-04-16 00-01-15.964930.csvoutput.xlsx
+++ b/scrapers/TA/scrapes/1. Run/Hotel_Region/tripadvisor_data_Teplice_2019-04-16 00-01-15.964930.csvoutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHTOROR\OneDrive - Universität St.Gallen\Hotel_Test_8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TobiasRordorf/Desktop/UNI/MBI HSG/4. Semester/Python/GitHub/hotelierchallenge/scrapers/TA/scrapes/1. Run/Hotel_Region/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A8A3FB6C-CA03-49D2-8AFA-F8B2E80589B1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7FC35D-193A-0746-9AD4-FF7724CBEC16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -599,9 +599,9 @@
       <selection activeCell="D2" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -629,7 +629,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -643,7 +643,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -657,7 +657,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -671,7 +671,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -685,7 +685,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -699,7 +699,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -713,7 +713,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -727,7 +727,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -741,7 +741,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -755,7 +755,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -769,7 +769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -783,7 +783,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -797,7 +797,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -811,7 +811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -825,7 +825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -839,7 +839,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -853,7 +853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -867,7 +867,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -881,7 +881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -895,7 +895,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -909,7 +909,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -923,7 +923,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -937,7 +937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -951,7 +951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -965,7 +965,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -979,7 +979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -993,7 +993,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>56</v>
       </c>
